--- a/Data-Management/Week-8/Reports/MaxSellingProducts.xlsx
+++ b/Data-Management/Week-8/Reports/MaxSellingProducts.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamol\Documents\ABCPharmacy\CSV\final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\GitRepos\msdatascience\Data-Management\Week-8\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="maxSalesRevenueStores" localSheetId="2">Sheet3!$A$1:$C$11</definedName>
     <definedName name="maxSellingProductsBySalesAmt" localSheetId="1">Sheet2!$A$1:$C$11</definedName>
+    <definedName name="monthwiseSales_1" localSheetId="4">Sheet5!$A$1:$E$7</definedName>
     <definedName name="statewiseSalesRevenue" localSheetId="3">Sheet4!$A$2:$B$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -51,7 +53,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="statewiseSalesRevenue" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="monthwiseSales" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Shravani\Documents\ABCPharmacy\CSV\final-project\monthwiseSales.csv" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="statewiseSalesRevenue" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\aamol\Documents\ABCPharmacy\CSV\final-project\statewiseSalesRevenue.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -63,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>CANDY &amp; BEVERAGE</t>
   </si>
@@ -252,6 +265,39 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>saleYear</t>
+  </si>
+  <si>
+    <t>saleMonth</t>
+  </si>
+  <si>
+    <t>monthlySaleValue</t>
+  </si>
+  <si>
+    <t>saleMonthNum</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>monthAndYear</t>
   </si>
 </sst>
 </file>
@@ -304,13 +350,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -374,6 +422,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -473,6 +522,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -579,11 +629,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="332492256"/>
-        <c:axId val="332498136"/>
+        <c:axId val="189452376"/>
+        <c:axId val="189452768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332492256"/>
+        <c:axId val="189452376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332498136"/>
+        <c:crossAx val="189452768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332498136"/>
+        <c:axId val="189452768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +694,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332492256"/>
+        <c:crossAx val="189452376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -658,6 +708,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -761,6 +812,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +939,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -991,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="332497352"/>
-        <c:axId val="332498528"/>
+        <c:axId val="189455512"/>
+        <c:axId val="189455120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332497352"/>
+        <c:axId val="189455512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332498528"/>
+        <c:crossAx val="189455120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332498528"/>
+        <c:axId val="189455120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332497352"/>
+        <c:crossAx val="189455512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,6 +1230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1346,6 +1400,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1452,12 +1507,12 @@
         <c:gapWidth val="84"/>
         <c:gapDepth val="53"/>
         <c:shape val="box"/>
-        <c:axId val="333912624"/>
-        <c:axId val="333911840"/>
+        <c:axId val="224185312"/>
+        <c:axId val="224183352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="333912624"/>
+        <c:axId val="224185312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333911840"/>
+        <c:crossAx val="224183352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333911840"/>
+        <c:axId val="224183352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333912624"/>
+        <c:crossAx val="224185312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,6 +1976,776 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly Sales Revenue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monthlySaleValue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3026923.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2900311.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3707182.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2304948.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2523208.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2821277.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="415764592"/>
+        <c:axId val="415766552"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>saleYear</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>mmm\-yy</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42491</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42522</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$B$2:$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>saleMonth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>mmm\-yy</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42491</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42522</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$C$2:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>saleMonthNum</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>mmm\-yy</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42491</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42522</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$2:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="415764592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415766552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="415766552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415764592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2133,6 +2958,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4137,6 +5002,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4309,6 +5690,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="maxSellingProductsBySalesAmt" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -4318,7 +5734,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statewiseSalesRevenue" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statewiseSalesRevenue" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="monthwiseSales_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4587,17 +6007,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4608,7 +6028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>90400000000</v>
       </c>
@@ -4619,7 +6039,7 @@
         <v>32583</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>92000000000</v>
       </c>
@@ -4630,7 +6050,7 @@
         <v>21352</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>90800000000</v>
       </c>
@@ -4641,7 +6061,7 @@
         <v>19201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>90300000000</v>
       </c>
@@ -4652,7 +6072,7 @@
         <v>14580</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4663,7 +6083,7 @@
         <v>14146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>90600000000</v>
       </c>
@@ -4674,7 +6094,7 @@
         <v>13323</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1820025008</v>
       </c>
@@ -4685,7 +6105,7 @@
         <v>12057</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40003000753</v>
       </c>
@@ -4696,7 +6116,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90900000000</v>
       </c>
@@ -4707,7 +6127,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +6138,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
@@ -4732,17 +6152,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4753,7 +6173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4764,7 +6184,7 @@
         <v>1662010.26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4775,7 +6195,7 @@
         <v>756299.96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4786,7 +6206,7 @@
         <v>745804.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4797,7 +6217,7 @@
         <v>480597.98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4808,7 +6228,7 @@
         <v>474030.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +6239,7 @@
         <v>472319.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -4830,7 +6250,7 @@
         <v>426615.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -4841,7 +6261,7 @@
         <v>378584.54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +6272,7 @@
         <v>357964</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -4873,18 +6293,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -4895,7 +6315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -4906,7 +6326,7 @@
         <v>2116067.2599999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -4917,7 +6337,7 @@
         <v>1743900.83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -4928,7 +6348,7 @@
         <v>1701263.19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -4939,7 +6359,7 @@
         <v>1437316.97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -4950,7 +6370,7 @@
         <v>574577.54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -4961,7 +6381,7 @@
         <v>522080.09</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4972,7 +6392,7 @@
         <v>519509.13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -4983,7 +6403,7 @@
         <v>471032.51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -4994,7 +6414,7 @@
         <v>412827.33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -5015,17 +6435,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5033,7 +6453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -5041,7 +6461,7 @@
         <v>6413468.4199999897</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5049,7 +6469,7 @@
         <v>4277291.7699999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -5057,7 +6477,7 @@
         <v>2733151.59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -5065,7 +6485,7 @@
         <v>2665387.1800000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -5073,7 +6493,7 @@
         <v>798851.27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -5081,7 +6501,7 @@
         <v>388652.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -5093,4 +6513,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3026923.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2900311.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3707182.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>42461</v>
+      </c>
+      <c r="B5">
+        <v>2016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2304948.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>42491</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2523208.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42522</v>
+      </c>
+      <c r="B7">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2821277.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>